--- a/QuanLyDienNang/Templates/NhapThongTinKhachHang_Sample.xlsx
+++ b/QuanLyDienNang/Templates/NhapThongTinKhachHang_Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\QuanLyDienNang\QuanLyDienNang\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2115E2-8F1A-4D35-9614-A49B83A8B3F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E4464F-1F34-4FE9-BE66-A556831BFD6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{13172063-5E7C-438F-A150-65B67473061E}"/>
   </bookViews>
@@ -194,10 +194,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -516,7 +517,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,6 +606,9 @@
       <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="K2" s="3">
+        <v>40541</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -631,6 +635,9 @@
       <c r="I3" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="K3" s="3">
+        <v>44193</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -657,6 +664,9 @@
       <c r="I4" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="K4" s="3">
+        <v>43525</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -683,6 +693,9 @@
       <c r="I5" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="K5" s="3">
+        <v>43556</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -709,6 +722,9 @@
       <c r="I6" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="K6" s="3">
+        <v>43842</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -734,6 +750,9 @@
       </c>
       <c r="I7" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="K7" s="3">
+        <v>44166</v>
       </c>
     </row>
   </sheetData>

--- a/QuanLyDienNang/Templates/NhapThongTinKhachHang_Sample.xlsx
+++ b/QuanLyDienNang/Templates/NhapThongTinKhachHang_Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\QuanLyDienNang\QuanLyDienNang\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E4464F-1F34-4FE9-BE66-A556831BFD6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA6B579-4706-4C7E-943E-06765CE3760D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{13172063-5E7C-438F-A150-65B67473061E}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
         <v>17</v>
       </c>
       <c r="K2" s="3">
-        <v>40541</v>
+        <v>44185</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>29</v>
       </c>
       <c r="K3" s="3">
-        <v>44193</v>
+        <v>44186</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -665,7 +665,7 @@
         <v>31</v>
       </c>
       <c r="K4" s="3">
-        <v>43525</v>
+        <v>44187</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>32</v>
       </c>
       <c r="K5" s="3">
-        <v>43556</v>
+        <v>44188</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="K6" s="3">
-        <v>43842</v>
+        <v>44189</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>33</v>
       </c>
       <c r="K7" s="3">
-        <v>44166</v>
+        <v>44190</v>
       </c>
     </row>
   </sheetData>

--- a/QuanLyDienNang/Templates/NhapThongTinKhachHang_Sample.xlsx
+++ b/QuanLyDienNang/Templates/NhapThongTinKhachHang_Sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\QuanLyDienNang\QuanLyDienNang\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA6B579-4706-4C7E-943E-06765CE3760D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701B5602-DDEA-4DD2-A538-AA8150CCDA1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{13172063-5E7C-438F-A150-65B67473061E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>HoVaTen</t>
   </si>
@@ -42,9 +42,6 @@
     <t>DiaChi</t>
   </si>
   <si>
-    <t>MaBangGia</t>
-  </si>
-  <si>
     <t>MaTram</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>La Quốc Thắng</t>
   </si>
   <si>
-    <t>BG001</t>
-  </si>
-  <si>
     <t>BA001</t>
   </si>
   <si>
@@ -136,6 +130,9 @@
   </si>
   <si>
     <t>lng@gmail.com</t>
+  </si>
+  <si>
+    <t>MaChiTietBangGia</t>
   </si>
 </sst>
 </file>
@@ -517,14 +514,14 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -545,54 +542,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -604,7 +598,7 @@
         <v>987610260</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" s="3">
         <v>44185</v>
@@ -612,16 +606,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -633,7 +624,7 @@
         <v>123456789</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K3" s="3">
         <v>44186</v>
@@ -641,16 +632,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -662,7 +650,7 @@
         <v>234567891</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K4" s="3">
         <v>44187</v>
@@ -670,16 +658,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -691,7 +676,7 @@
         <v>345678912</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K5" s="3">
         <v>44188</v>
@@ -699,16 +684,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -720,7 +702,7 @@
         <v>456789123</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="3">
         <v>44189</v>
@@ -728,16 +710,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -749,7 +728,7 @@
         <v>567891234</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K7" s="3">
         <v>44190</v>

--- a/QuanLyDienNang/Templates/NhapThongTinKhachHang_Sample.xlsx
+++ b/QuanLyDienNang/Templates/NhapThongTinKhachHang_Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\QuanLyDienNang\QuanLyDienNang\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701B5602-DDEA-4DD2-A538-AA8150CCDA1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD46245-8274-4749-8877-19358FF0F738}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{13172063-5E7C-438F-A150-65B67473061E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>HoVaTen</t>
   </si>
@@ -132,7 +132,10 @@
     <t>lng@gmail.com</t>
   </si>
   <si>
-    <t>MaChiTietBangGia</t>
+    <t>MaBangGia</t>
+  </si>
+  <si>
+    <t>SH-THUONG</t>
   </si>
 </sst>
 </file>
@@ -513,15 +516,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F681D5-BC4C-4C4A-BEB4-B0FC9E25C460}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -585,6 +586,9 @@
       <c r="B2" t="s">
         <v>22</v>
       </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
@@ -611,6 +615,9 @@
       <c r="B3" t="s">
         <v>21</v>
       </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
@@ -637,6 +644,9 @@
       <c r="B4" t="s">
         <v>23</v>
       </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
@@ -663,6 +673,9 @@
       <c r="B5" t="s">
         <v>24</v>
       </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
@@ -689,6 +702,9 @@
       <c r="B6" t="s">
         <v>25</v>
       </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
@@ -714,6 +730,9 @@
       </c>
       <c r="B7" t="s">
         <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>

--- a/QuanLyDienNang/Templates/NhapThongTinKhachHang_Sample.xlsx
+++ b/QuanLyDienNang/Templates/NhapThongTinKhachHang_Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\QuanLyDienNang\QuanLyDienNang\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD46245-8274-4749-8877-19358FF0F738}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA737737-2D52-44ED-AD3C-05885A7C0FA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{13172063-5E7C-438F-A150-65B67473061E}"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="23985" windowHeight="12825" xr2:uid="{13172063-5E7C-438F-A150-65B67473061E}"/>
   </bookViews>
   <sheets>
     <sheet name="DNTT" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>HoVaTen</t>
   </si>
@@ -136,6 +136,24 @@
   </si>
   <si>
     <t>SH-THUONG</t>
+  </si>
+  <si>
+    <t>0987610260</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>0234567891</t>
+  </si>
+  <si>
+    <t>0345678912</t>
+  </si>
+  <si>
+    <t>0456789123</t>
+  </si>
+  <si>
+    <t>0567891234</t>
   </si>
 </sst>
 </file>
@@ -194,11 +212,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -516,7 +535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F681D5-BC4C-4C4A-BEB4-B0FC9E25C460}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -598,8 +619,8 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>987610260</v>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>15</v>
@@ -627,8 +648,8 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>123456789</v>
+      <c r="H3" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -656,8 +677,8 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="H4">
-        <v>234567891</v>
+      <c r="H4" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>29</v>
@@ -685,8 +706,8 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="H5">
-        <v>345678912</v>
+      <c r="H5" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>30</v>
@@ -714,8 +735,8 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>456789123</v>
+      <c r="H6" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>28</v>
@@ -743,8 +764,8 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>567891234</v>
+      <c r="H7" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>31</v>

--- a/QuanLyDienNang/Templates/NhapThongTinKhachHang_Sample.xlsx
+++ b/QuanLyDienNang/Templates/NhapThongTinKhachHang_Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\QuanLyDienNang\QuanLyDienNang\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA737737-2D52-44ED-AD3C-05885A7C0FA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9938BB97-383D-456D-9A6C-C8F272B9FBC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="23985" windowHeight="12825" xr2:uid="{13172063-5E7C-438F-A150-65B67473061E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{13172063-5E7C-438F-A150-65B67473061E}"/>
   </bookViews>
   <sheets>
     <sheet name="DNTT" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>HoVaTen</t>
   </si>
@@ -154,6 +154,48 @@
   </si>
   <si>
     <t>0567891234</t>
+  </si>
+  <si>
+    <t>HD2468013579</t>
+  </si>
+  <si>
+    <t>HD2468013580</t>
+  </si>
+  <si>
+    <t>HD2468013581</t>
+  </si>
+  <si>
+    <t>HD2468013582</t>
+  </si>
+  <si>
+    <t>HD2468013583</t>
+  </si>
+  <si>
+    <t>HD2468013584</t>
+  </si>
+  <si>
+    <t>ABCXYZ</t>
+  </si>
+  <si>
+    <t>5907000000001</t>
+  </si>
+  <si>
+    <t>5907000000002</t>
+  </si>
+  <si>
+    <t>5907000000003</t>
+  </si>
+  <si>
+    <t>5907000000004</t>
+  </si>
+  <si>
+    <t>5907000000005</t>
+  </si>
+  <si>
+    <t>5907000000006</t>
+  </si>
+  <si>
+    <t>Vietcombank</t>
   </si>
 </sst>
 </file>
@@ -212,12 +254,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -536,7 +579,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H7"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,13 +589,14 @@
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
     <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -619,14 +663,29 @@
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2">
+        <v>1234567890</v>
+      </c>
       <c r="H2" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
       <c r="K2" s="3">
         <v>44185</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -648,14 +707,29 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>1234567891</v>
+      </c>
       <c r="H3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
       <c r="K3" s="3">
         <v>44186</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -677,14 +751,29 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4">
+        <v>1234567892</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
       <c r="K4" s="3">
         <v>44187</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -706,14 +795,29 @@
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <v>1234567893</v>
+      </c>
       <c r="H5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
       <c r="K5" s="3">
         <v>44188</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -735,14 +839,29 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>1234567894</v>
+      </c>
       <c r="H6" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
       <c r="K6" s="3">
         <v>44189</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -764,14 +883,29 @@
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7">
+        <v>1234567895</v>
+      </c>
       <c r="H7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
       <c r="K7" s="3">
         <v>44190</v>
+      </c>
+      <c r="L7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
